--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode3_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyCode3_AddNewProfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C242DE9-1221-4B78-B9A9-6423E01F552C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A235EF-A550-4CA4-B962-A350732C455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{606A740E-8724-4E47-BCAB-514569A3A0C2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Keyword</t>
   </si>
@@ -136,10 +136,22 @@
     <t>txt_endDate</t>
   </si>
   <si>
-    <t>dropdown_agency</t>
-  </si>
-  <si>
     <t>txt_title</t>
+  </si>
+  <si>
+    <t>checkAccessibility</t>
+  </si>
+  <si>
+    <t>verifyElementNotPresent</t>
+  </si>
+  <si>
+    <t>txt_last_proc_date</t>
+  </si>
+  <si>
+    <t>dropdown_dept</t>
+  </si>
+  <si>
+    <t>AddNewProfile_AgencyCode3</t>
   </si>
 </sst>
 </file>
@@ -572,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82538B52-91DF-4319-B1C1-893276EE53AA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,27 +636,25 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -652,13 +662,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -666,45 +676,73 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
+      <c r="A7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
